--- a/docs/DTT-Assessment-Hour-Log.xlsx
+++ b/docs/DTT-Assessment-Hour-Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amberwessels/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zoe/Documents/GitHub/DTT-houses/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49F91033-96F3-7148-A020-201798871A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C052DBA-5A40-F64A-8740-F55285C58969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="500" windowWidth="34620" windowHeight="19820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DTT Test Hour Log" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Subject</t>
   </si>
@@ -48,31 +48,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Example 1</t>
-  </si>
-  <si>
-    <t>Implementing …</t>
-  </si>
-  <si>
-    <t>Example 2</t>
-  </si>
-  <si>
-    <t>Had some issues with…</t>
-  </si>
-  <si>
     <t>Total amount of hours</t>
   </si>
   <si>
     <t>Bonus</t>
-  </si>
-  <si>
-    <t>Example 3</t>
-  </si>
-  <si>
-    <t>Implemented bonus feature….</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <r>
@@ -95,6 +74,12 @@
       <t xml:space="preserve"> 
 Fill in the number of hours that were required to complete the test. Please include every step you took during the process and include a detailed description of every step. Add reasoning on why you took certain decisions or applied specific techniques. We prefer quality over quantity so take your time with the test and the log.</t>
     </r>
+  </si>
+  <si>
+    <t>Setting up github repo, creating projectboard and issues for all the user stories. Installing vue.js. Building the navigation (only styling to make it sticky) and creating a route to the houses page.</t>
+  </si>
+  <si>
+    <t>Setup project + start first user story</t>
   </si>
 </sst>
 </file>
@@ -397,19 +382,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -421,19 +403,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -448,6 +418,27 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1708,8 +1699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1723,282 +1714,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="10"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="9"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>13</v>
+      <c r="A2" s="18" t="s">
+        <v>6</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>9</v>
+      <c r="E3" s="14" t="s">
+        <v>5</v>
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:6" ht="37" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="22">
+        <v>1</v>
+      </c>
+      <c r="C4" s="23">
+        <v>45633</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23">
+        <v>42736</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23">
+        <v>42736</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17">
-        <v>3</v>
-      </c>
-      <c r="C4" s="18">
-        <v>42736</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="17">
-        <v>3</v>
-      </c>
-      <c r="C5" s="18">
-        <v>42736</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="17">
-        <v>5</v>
-      </c>
-      <c r="C6" s="18">
-        <v>42736</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="14">
+      <c r="B30" s="13">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -2006,7 +1983,7 @@
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -2014,7 +1991,7 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2022,12 +1999,12 @@
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/DTT-Assessment-Hour-Log.xlsx
+++ b/docs/DTT-Assessment-Hour-Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zoe/Documents/GitHub/DTT-houses/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C052DBA-5A40-F64A-8740-F55285C58969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B80056-D182-8744-97A8-BB7B30241C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Subject</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>Setup project + start first user story</t>
+  </si>
+  <si>
+    <t>Fully functional navigatoin</t>
+  </si>
+  <si>
+    <t>I made costum properties of the style-guide. I used the router active class to give the text a different styling when active.  I had some troble getting the icons for mobile, I didn't know I had to import them before I could use them. After I fixed that I again used the router active class to show the right icon. After that I gave the nav the styling so that it looked like the designs.</t>
   </si>
 </sst>
 </file>
@@ -407,6 +413,24 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -420,24 +444,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1699,8 +1705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1714,22 +1720,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="9"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -1750,215 +1756,221 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="37" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="18">
         <v>1</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="19">
         <v>45633</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23">
-        <v>42736</v>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>9</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
+      <c r="B5" s="18">
+        <v>2</v>
+      </c>
+      <c r="C5" s="19">
+        <v>45634</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="20"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23">
-        <v>42736</v>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="21"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19">
+        <v>45627</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="20"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25"/>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25"/>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="25"/>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1975,7 +1987,7 @@
       </c>
       <c r="B30" s="13">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
